--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MT\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5563100B-23AF-4325-B65D-F8A3D276A75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF73543-D6F1-4EAA-8733-34025A4F78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="825" windowWidth="16755" windowHeight="16170" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="1725" yWindow="1725" windowWidth="14400" windowHeight="7290" firstSheet="2" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -621,9 +621,9 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -631,20 +631,20 @@
         <v>67</v>
       </c>
       <c r="C1" s="3">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,167 +652,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -830,16 +830,16 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -847,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1055,13 +1055,13 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1089,13 +1089,16 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="29.04296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1279,20 +1282,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MT\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF73543-D6F1-4EAA-8733-34025A4F78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB26B2C-46DC-46CF-B303-EF976D5A157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1725" windowWidth="14400" windowHeight="7290" firstSheet="2" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="9385" yWindow="430" windowWidth="9815" windowHeight="7290" firstSheet="3" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
         <v>67</v>
       </c>
       <c r="C1" s="3">
-        <v>45376</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
@@ -1089,8 +1089,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MT\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB26B2C-46DC-46CF-B303-EF976D5A157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{955E5E6E-E5D8-496C-811C-A9E1FFED3013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9385" yWindow="430" windowWidth="9815" windowHeight="7290" firstSheet="3" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21390" windowHeight="16860" firstSheet="3" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -621,9 +621,9 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -631,20 +631,20 @@
         <v>67</v>
       </c>
       <c r="C1" s="3">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,167 +652,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -834,12 +834,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -847,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1055,13 +1055,13 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1089,16 +1089,16 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.04296875" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1106,15 +1106,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MT\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{955E5E6E-E5D8-496C-811C-A9E1FFED3013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C32BD3-AEA8-436D-8314-F58A932FFA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21390" windowHeight="16860" firstSheet="3" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="10" yWindow="730" windowWidth="19190" windowHeight="10070" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Source:</t>
   </si>
@@ -621,9 +621,9 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -631,20 +631,20 @@
         <v>67</v>
       </c>
       <c r="C1" s="3">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,167 +652,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -828,214 +828,2389 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>
@@ -1055,13 +3230,13 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +3244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1089,16 +3264,16 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1106,7 +3281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +3289,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +3329,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +3337,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +3345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +3353,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +3393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>48</v>
       </c>
